--- a/工器具台账.xlsx
+++ b/工器具台账.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3230" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="329">
   <si>
     <t>样品名称</t>
   </si>
@@ -827,7 +827,7 @@
     <t>2025.3.13</t>
   </si>
   <si>
-    <t>1.04</t>
+    <t>[1.04,1.05,1.07,2.04,1.54,1.04]</t>
   </si>
   <si>
     <t>23.6℃</t>
@@ -873,6 +873,9 @@
   </si>
   <si>
     <t>低压接地线</t>
+  </si>
+  <si>
+    <t>[1.04,1.05,1.07,2.04,1.54,1.04, 1.5]</t>
   </si>
   <si>
     <t>my-cg-jyst-001-1</t>
@@ -1674,7 +1677,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1740,6 +1743,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2071,7 +2077,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G200" sqref="G200"/>
+      <selection pane="bottomRight" activeCell="I196" sqref="I196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -11121,7 +11127,7 @@
         <v>264</v>
       </c>
       <c r="F155" s="5"/>
-      <c r="G155" s="6" t="s">
+      <c r="G155" s="22" t="s">
         <v>265</v>
       </c>
       <c r="H155" s="5" t="s">
@@ -11178,7 +11184,7 @@
         <v>264</v>
       </c>
       <c r="F156" s="5"/>
-      <c r="G156" s="6" t="s">
+      <c r="G156" s="22" t="s">
         <v>265</v>
       </c>
       <c r="H156" s="5" t="s">
@@ -11235,7 +11241,7 @@
         <v>264</v>
       </c>
       <c r="F157" s="5"/>
-      <c r="G157" s="6" t="s">
+      <c r="G157" s="22" t="s">
         <v>265</v>
       </c>
       <c r="H157" s="5" t="s">
@@ -11292,7 +11298,7 @@
         <v>264</v>
       </c>
       <c r="F158" s="5"/>
-      <c r="G158" s="6" t="s">
+      <c r="G158" s="22" t="s">
         <v>265</v>
       </c>
       <c r="H158" s="5" t="s">
@@ -11349,7 +11355,7 @@
         <v>264</v>
       </c>
       <c r="F159" s="5"/>
-      <c r="G159" s="6" t="s">
+      <c r="G159" s="22" t="s">
         <v>265</v>
       </c>
       <c r="H159" s="5" t="s">
@@ -11406,7 +11412,7 @@
         <v>264</v>
       </c>
       <c r="F160" s="5"/>
-      <c r="G160" s="6" t="s">
+      <c r="G160" s="22" t="s">
         <v>265</v>
       </c>
       <c r="H160" s="5" t="s">
@@ -11463,7 +11469,7 @@
         <v>264</v>
       </c>
       <c r="F161" s="5"/>
-      <c r="G161" s="6" t="s">
+      <c r="G161" s="22" t="s">
         <v>265</v>
       </c>
       <c r="H161" s="5" t="s">
@@ -11520,7 +11526,7 @@
         <v>264</v>
       </c>
       <c r="F162" s="5"/>
-      <c r="G162" s="6" t="s">
+      <c r="G162" s="22" t="s">
         <v>265</v>
       </c>
       <c r="H162" s="5" t="s">
@@ -11577,7 +11583,7 @@
         <v>264</v>
       </c>
       <c r="F163" s="5"/>
-      <c r="G163" s="6" t="s">
+      <c r="G163" s="22" t="s">
         <v>265</v>
       </c>
       <c r="H163" s="5" t="s">
@@ -11634,7 +11640,7 @@
         <v>264</v>
       </c>
       <c r="F164" s="5"/>
-      <c r="G164" s="6" t="s">
+      <c r="G164" s="22" t="s">
         <v>265</v>
       </c>
       <c r="H164" s="5" t="s">
@@ -11691,7 +11697,9 @@
         <v>264</v>
       </c>
       <c r="F165" s="5"/>
-      <c r="G165" s="6"/>
+      <c r="G165" s="22" t="s">
+        <v>281</v>
+      </c>
       <c r="H165" s="5" t="s">
         <v>266</v>
       </c>
@@ -11746,7 +11754,9 @@
         <v>264</v>
       </c>
       <c r="F166" s="5"/>
-      <c r="G166" s="6"/>
+      <c r="G166" s="22" t="s">
+        <v>281</v>
+      </c>
       <c r="H166" s="5" t="s">
         <v>266</v>
       </c>
@@ -11801,7 +11811,9 @@
         <v>264</v>
       </c>
       <c r="F167" s="5"/>
-      <c r="G167" s="6"/>
+      <c r="G167" s="22" t="s">
+        <v>281</v>
+      </c>
       <c r="H167" s="5" t="s">
         <v>266</v>
       </c>
@@ -11843,11 +11855,11 @@
       <c r="A168" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B168" s="22" t="s">
-        <v>281</v>
+      <c r="B168" s="23" t="s">
+        <v>282</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>23</v>
@@ -11859,10 +11871,10 @@
         <v>43</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I168" s="6" t="s">
         <v>27</v>
@@ -11871,10 +11883,10 @@
         <v>66</v>
       </c>
       <c r="K168" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L168" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M168" s="5" t="s">
         <v>31</v>
@@ -11887,16 +11899,16 @@
       </c>
       <c r="P168" s="5"/>
       <c r="Q168" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R168" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S168" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T168" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="X168" s="19"/>
     </row>
@@ -11904,11 +11916,11 @@
       <c r="A169" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B169" s="22" t="s">
-        <v>289</v>
+      <c r="B169" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>23</v>
@@ -11920,10 +11932,10 @@
         <v>43</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I169" s="6" t="s">
         <v>27</v>
@@ -11932,10 +11944,10 @@
         <v>66</v>
       </c>
       <c r="K169" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L169" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M169" s="5" t="s">
         <v>31</v>
@@ -11948,16 +11960,16 @@
       </c>
       <c r="P169" s="5"/>
       <c r="Q169" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R169" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S169" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T169" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="X169" s="19"/>
     </row>
@@ -11965,11 +11977,11 @@
       <c r="A170" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B170" s="22" t="s">
-        <v>291</v>
+      <c r="B170" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>23</v>
@@ -11984,7 +11996,7 @@
         <v>98</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I170" s="6" t="s">
         <v>27</v>
@@ -11993,10 +12005,10 @@
         <v>66</v>
       </c>
       <c r="K170" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L170" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M170" s="5" t="s">
         <v>31</v>
@@ -12009,16 +12021,16 @@
       </c>
       <c r="P170" s="5"/>
       <c r="Q170" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R170" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S170" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T170" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="X170" s="19"/>
     </row>
@@ -12026,11 +12038,11 @@
       <c r="A171" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B171" s="22" t="s">
-        <v>292</v>
+      <c r="B171" s="23" t="s">
+        <v>293</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>23</v>
@@ -12042,10 +12054,10 @@
         <v>43</v>
       </c>
       <c r="G171" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I171" s="6" t="s">
         <v>27</v>
@@ -12054,10 +12066,10 @@
         <v>66</v>
       </c>
       <c r="K171" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L171" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M171" s="5" t="s">
         <v>31</v>
@@ -12070,16 +12082,16 @@
       </c>
       <c r="P171" s="5"/>
       <c r="Q171" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R171" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S171" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T171" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="X171" s="19"/>
     </row>
@@ -12087,11 +12099,11 @@
       <c r="A172" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B172" s="22" t="s">
-        <v>294</v>
+      <c r="B172" s="23" t="s">
+        <v>295</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>23</v>
@@ -12103,10 +12115,10 @@
         <v>43</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I172" s="6" t="s">
         <v>27</v>
@@ -12115,10 +12127,10 @@
         <v>66</v>
       </c>
       <c r="K172" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L172" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M172" s="5" t="s">
         <v>31</v>
@@ -12131,28 +12143,28 @@
       </c>
       <c r="P172" s="5"/>
       <c r="Q172" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R172" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S172" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T172" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W172" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W172" s="26"/>
     </row>
     <row r="173" customHeight="1" spans="1:23">
       <c r="A173" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B173" s="22" t="s">
-        <v>296</v>
+      <c r="B173" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>23</v>
@@ -12167,7 +12179,7 @@
         <v>94</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I173" s="6" t="s">
         <v>27</v>
@@ -12176,10 +12188,10 @@
         <v>66</v>
       </c>
       <c r="K173" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L173" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M173" s="5" t="s">
         <v>31</v>
@@ -12192,28 +12204,28 @@
       </c>
       <c r="P173" s="5"/>
       <c r="Q173" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R173" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S173" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T173" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W173" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W173" s="26"/>
     </row>
     <row r="174" customHeight="1" spans="1:23">
       <c r="A174" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B174" s="22" t="s">
-        <v>297</v>
+      <c r="B174" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>23</v>
@@ -12225,10 +12237,10 @@
         <v>43</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I174" s="6" t="s">
         <v>27</v>
@@ -12237,10 +12249,10 @@
         <v>66</v>
       </c>
       <c r="K174" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L174" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M174" s="5" t="s">
         <v>31</v>
@@ -12253,28 +12265,28 @@
       </c>
       <c r="P174" s="5"/>
       <c r="Q174" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R174" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S174" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T174" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W174" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W174" s="26"/>
     </row>
     <row r="175" customHeight="1" spans="1:23">
       <c r="A175" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B175" s="22" t="s">
-        <v>299</v>
+      <c r="B175" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>23</v>
@@ -12286,10 +12298,10 @@
         <v>43</v>
       </c>
       <c r="G175" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I175" s="6" t="s">
         <v>27</v>
@@ -12298,10 +12310,10 @@
         <v>66</v>
       </c>
       <c r="K175" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L175" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M175" s="5" t="s">
         <v>31</v>
@@ -12314,28 +12326,28 @@
       </c>
       <c r="P175" s="5"/>
       <c r="Q175" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R175" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S175" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T175" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W175" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W175" s="26"/>
     </row>
     <row r="176" customHeight="1" spans="1:23">
       <c r="A176" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B176" s="22" t="s">
-        <v>301</v>
+      <c r="B176" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>23</v>
@@ -12347,10 +12359,10 @@
         <v>43</v>
       </c>
       <c r="G176" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I176" s="6" t="s">
         <v>27</v>
@@ -12359,10 +12371,10 @@
         <v>66</v>
       </c>
       <c r="K176" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L176" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M176" s="5" t="s">
         <v>31</v>
@@ -12375,28 +12387,28 @@
       </c>
       <c r="P176" s="5"/>
       <c r="Q176" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R176" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S176" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T176" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W176" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W176" s="26"/>
     </row>
     <row r="177" customHeight="1" spans="1:23">
       <c r="A177" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B177" s="22" t="s">
-        <v>303</v>
+      <c r="B177" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>23</v>
@@ -12408,10 +12420,10 @@
         <v>43</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I177" s="6" t="s">
         <v>27</v>
@@ -12420,10 +12432,10 @@
         <v>66</v>
       </c>
       <c r="K177" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L177" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M177" s="5" t="s">
         <v>31</v>
@@ -12436,25 +12448,25 @@
       </c>
       <c r="P177" s="5"/>
       <c r="Q177" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R177" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S177" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T177" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W177" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W177" s="26"/>
     </row>
     <row r="178" s="2" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A178" s="23" t="s">
+      <c r="A178" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B178" s="24" t="s">
-        <v>305</v>
+      <c r="B178" s="25" t="s">
+        <v>306</v>
       </c>
       <c r="C178" s="16"/>
       <c r="D178" s="16"/>
@@ -12462,7 +12474,7 @@
       <c r="F178" s="16"/>
       <c r="G178" s="10"/>
       <c r="H178" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I178" s="6" t="s">
         <v>27</v>
@@ -12471,13 +12483,13 @@
         <v>66</v>
       </c>
       <c r="K178" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L178" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M178" s="16" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N178" s="16" t="s">
         <v>47</v>
@@ -12486,28 +12498,28 @@
         <v>48</v>
       </c>
       <c r="P178" s="16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q178" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R178" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S178" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T178" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W178" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W178" s="26"/>
     </row>
     <row r="179" s="2" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A179" s="23" t="s">
+      <c r="A179" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B179" s="24" t="s">
-        <v>308</v>
+      <c r="B179" s="25" t="s">
+        <v>309</v>
       </c>
       <c r="C179" s="16"/>
       <c r="D179" s="16"/>
@@ -12515,7 +12527,7 @@
       <c r="F179" s="16"/>
       <c r="G179" s="10"/>
       <c r="H179" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I179" s="6" t="s">
         <v>27</v>
@@ -12524,37 +12536,37 @@
         <v>66</v>
       </c>
       <c r="K179" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L179" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M179" s="16"/>
       <c r="N179" s="16"/>
       <c r="O179" s="16"/>
       <c r="P179" s="16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q179" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R179" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S179" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T179" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W179" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W179" s="26"/>
     </row>
     <row r="180" s="2" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A180" s="23" t="s">
+      <c r="A180" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B180" s="24" t="s">
-        <v>309</v>
+      <c r="B180" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="C180" s="16"/>
       <c r="D180" s="16"/>
@@ -12562,7 +12574,7 @@
       <c r="F180" s="16"/>
       <c r="G180" s="10"/>
       <c r="H180" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I180" s="6" t="s">
         <v>27</v>
@@ -12571,37 +12583,37 @@
         <v>66</v>
       </c>
       <c r="K180" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L180" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M180" s="16"/>
       <c r="N180" s="16"/>
       <c r="O180" s="16"/>
       <c r="P180" s="16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q180" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R180" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S180" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T180" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W180" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W180" s="26"/>
     </row>
     <row r="181" s="2" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A181" s="23" t="s">
+      <c r="A181" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B181" s="24" t="s">
-        <v>310</v>
+      <c r="B181" s="25" t="s">
+        <v>311</v>
       </c>
       <c r="C181" s="16"/>
       <c r="D181" s="16"/>
@@ -12609,7 +12621,7 @@
       <c r="F181" s="16"/>
       <c r="G181" s="10"/>
       <c r="H181" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I181" s="6" t="s">
         <v>27</v>
@@ -12618,37 +12630,37 @@
         <v>66</v>
       </c>
       <c r="K181" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L181" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M181" s="16"/>
       <c r="N181" s="16"/>
       <c r="O181" s="16"/>
       <c r="P181" s="16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q181" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R181" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S181" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T181" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W181" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W181" s="26"/>
     </row>
     <row r="182" s="2" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A182" s="23" t="s">
+      <c r="A182" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B182" s="24" t="s">
-        <v>311</v>
+      <c r="B182" s="25" t="s">
+        <v>312</v>
       </c>
       <c r="C182" s="16"/>
       <c r="D182" s="16"/>
@@ -12656,7 +12668,7 @@
       <c r="F182" s="16"/>
       <c r="G182" s="10"/>
       <c r="H182" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I182" s="6" t="s">
         <v>27</v>
@@ -12665,37 +12677,37 @@
         <v>66</v>
       </c>
       <c r="K182" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L182" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M182" s="16"/>
       <c r="N182" s="16"/>
       <c r="O182" s="16"/>
       <c r="P182" s="16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q182" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R182" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S182" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T182" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W182" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W182" s="26"/>
     </row>
     <row r="183" s="2" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A183" s="23" t="s">
+      <c r="A183" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B183" s="24" t="s">
-        <v>312</v>
+      <c r="B183" s="25" t="s">
+        <v>313</v>
       </c>
       <c r="C183" s="16"/>
       <c r="D183" s="16"/>
@@ -12703,7 +12715,7 @@
       <c r="F183" s="16"/>
       <c r="G183" s="10"/>
       <c r="H183" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I183" s="6" t="s">
         <v>27</v>
@@ -12712,37 +12724,37 @@
         <v>66</v>
       </c>
       <c r="K183" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L183" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M183" s="16"/>
       <c r="N183" s="16"/>
       <c r="O183" s="16"/>
       <c r="P183" s="16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q183" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R183" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S183" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T183" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W183" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W183" s="26"/>
     </row>
     <row r="184" s="2" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A184" s="23" t="s">
+      <c r="A184" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B184" s="24" t="s">
-        <v>313</v>
+      <c r="B184" s="25" t="s">
+        <v>314</v>
       </c>
       <c r="C184" s="16"/>
       <c r="D184" s="16"/>
@@ -12750,7 +12762,7 @@
       <c r="F184" s="16"/>
       <c r="G184" s="10"/>
       <c r="H184" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I184" s="6" t="s">
         <v>27</v>
@@ -12759,37 +12771,37 @@
         <v>66</v>
       </c>
       <c r="K184" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L184" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M184" s="16"/>
       <c r="N184" s="16"/>
       <c r="O184" s="16"/>
       <c r="P184" s="16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q184" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R184" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S184" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T184" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W184" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W184" s="26"/>
     </row>
     <row r="185" s="2" customFormat="1" customHeight="1" spans="1:23">
-      <c r="A185" s="23" t="s">
+      <c r="A185" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B185" s="24" t="s">
-        <v>314</v>
+      <c r="B185" s="25" t="s">
+        <v>315</v>
       </c>
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
@@ -12797,7 +12809,7 @@
       <c r="F185" s="16"/>
       <c r="G185" s="10"/>
       <c r="H185" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I185" s="6" t="s">
         <v>27</v>
@@ -12806,40 +12818,40 @@
         <v>66</v>
       </c>
       <c r="K185" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L185" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M185" s="16"/>
       <c r="N185" s="16"/>
       <c r="O185" s="16"/>
       <c r="P185" s="16" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q185" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R185" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S185" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T185" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W185" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W185" s="26"/>
     </row>
     <row r="186" ht="46" customHeight="1" spans="1:23">
       <c r="A186" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B186" s="22" t="s">
-        <v>315</v>
+      <c r="B186" s="23" t="s">
+        <v>316</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>23</v>
@@ -12851,10 +12863,10 @@
         <v>25</v>
       </c>
       <c r="G186" s="6" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I186" s="6" t="s">
         <v>27</v>
@@ -12863,10 +12875,10 @@
         <v>66</v>
       </c>
       <c r="K186" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L186" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M186" s="5" t="s">
         <v>31</v>
@@ -12879,28 +12891,28 @@
       </c>
       <c r="P186" s="5"/>
       <c r="Q186" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R186" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S186" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T186" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W186" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W186" s="26"/>
     </row>
     <row r="187" customHeight="1" spans="1:23">
       <c r="A187" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B187" s="22" t="s">
-        <v>317</v>
+      <c r="B187" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>23</v>
@@ -12912,10 +12924,10 @@
         <v>25</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I187" s="6" t="s">
         <v>27</v>
@@ -12924,10 +12936,10 @@
         <v>66</v>
       </c>
       <c r="K187" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L187" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M187" s="5" t="s">
         <v>31</v>
@@ -12940,28 +12952,28 @@
       </c>
       <c r="P187" s="5"/>
       <c r="Q187" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R187" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S187" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T187" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W187" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W187" s="26"/>
     </row>
     <row r="188" customHeight="1" spans="1:23">
       <c r="A188" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B188" s="22" t="s">
-        <v>319</v>
+      <c r="B188" s="23" t="s">
+        <v>320</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>23</v>
@@ -12973,10 +12985,10 @@
         <v>25</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I188" s="6" t="s">
         <v>27</v>
@@ -12985,10 +12997,10 @@
         <v>66</v>
       </c>
       <c r="K188" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L188" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M188" s="5" t="s">
         <v>31</v>
@@ -13001,28 +13013,28 @@
       </c>
       <c r="P188" s="5"/>
       <c r="Q188" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R188" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S188" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T188" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W188" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W188" s="26"/>
     </row>
     <row r="189" customHeight="1" spans="1:23">
       <c r="A189" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B189" s="22" t="s">
-        <v>321</v>
+      <c r="B189" s="23" t="s">
+        <v>322</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>23</v>
@@ -13037,7 +13049,7 @@
         <v>131</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I189" s="6" t="s">
         <v>27</v>
@@ -13046,10 +13058,10 @@
         <v>66</v>
       </c>
       <c r="K189" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M189" s="5" t="s">
         <v>31</v>
@@ -13062,28 +13074,28 @@
       </c>
       <c r="P189" s="5"/>
       <c r="Q189" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R189" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S189" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T189" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W189" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W189" s="26"/>
     </row>
     <row r="190" customHeight="1" spans="1:23">
       <c r="A190" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B190" s="22" t="s">
-        <v>322</v>
+      <c r="B190" s="23" t="s">
+        <v>323</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>23</v>
@@ -13095,10 +13107,10 @@
         <v>25</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I190" s="6" t="s">
         <v>27</v>
@@ -13107,10 +13119,10 @@
         <v>66</v>
       </c>
       <c r="K190" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M190" s="5" t="s">
         <v>31</v>
@@ -13123,28 +13135,28 @@
       </c>
       <c r="P190" s="5"/>
       <c r="Q190" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R190" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S190" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T190" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W190" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W190" s="26"/>
     </row>
     <row r="191" customHeight="1" spans="1:23">
       <c r="A191" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B191" s="22" t="s">
-        <v>323</v>
+      <c r="B191" s="23" t="s">
+        <v>324</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>23</v>
@@ -13159,7 +13171,7 @@
         <v>123</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I191" s="6" t="s">
         <v>27</v>
@@ -13168,10 +13180,10 @@
         <v>66</v>
       </c>
       <c r="K191" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L191" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M191" s="5" t="s">
         <v>31</v>
@@ -13184,28 +13196,28 @@
       </c>
       <c r="P191" s="5"/>
       <c r="Q191" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R191" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S191" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T191" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W191" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W191" s="26"/>
     </row>
     <row r="192" customHeight="1" spans="1:23">
       <c r="A192" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B192" s="22" t="s">
-        <v>324</v>
+      <c r="B192" s="23" t="s">
+        <v>325</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>23</v>
@@ -13217,10 +13229,10 @@
         <v>25</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I192" s="6" t="s">
         <v>27</v>
@@ -13229,10 +13241,10 @@
         <v>66</v>
       </c>
       <c r="K192" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L192" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M192" s="5" t="s">
         <v>31</v>
@@ -13245,28 +13257,28 @@
       </c>
       <c r="P192" s="5"/>
       <c r="Q192" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R192" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S192" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T192" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W192" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W192" s="26"/>
     </row>
     <row r="193" customHeight="1" spans="1:23">
       <c r="A193" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B193" s="22" t="s">
-        <v>326</v>
+      <c r="B193" s="23" t="s">
+        <v>327</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>23</v>
@@ -13278,10 +13290,10 @@
         <v>25</v>
       </c>
       <c r="G193" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I193" s="6" t="s">
         <v>27</v>
@@ -13290,10 +13302,10 @@
         <v>66</v>
       </c>
       <c r="K193" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L193" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M193" s="5" t="s">
         <v>31</v>
@@ -13306,18 +13318,18 @@
       </c>
       <c r="P193" s="5"/>
       <c r="Q193" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R193" s="5" t="s">
         <v>23</v>
       </c>
       <c r="S193" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="T193" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="W193" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="W193" s="26"/>
     </row>
     <row r="194" customHeight="1" spans="1:23">
       <c r="A194" s="5"/>
@@ -13340,7 +13352,7 @@
       <c r="R194" s="5"/>
       <c r="S194" s="5"/>
       <c r="T194" s="5"/>
-      <c r="W194" s="25"/>
+      <c r="W194" s="26"/>
     </row>
     <row r="195" customHeight="1" spans="1:23">
       <c r="A195" s="5"/>
@@ -13363,7 +13375,7 @@
       <c r="R195" s="5"/>
       <c r="S195" s="5"/>
       <c r="T195" s="5"/>
-      <c r="W195" s="25"/>
+      <c r="W195" s="26"/>
     </row>
     <row r="196" customHeight="1" spans="1:23">
       <c r="A196" s="5"/>
@@ -13386,7 +13398,7 @@
       <c r="R196" s="5"/>
       <c r="S196" s="5"/>
       <c r="T196" s="5"/>
-      <c r="W196" s="25"/>
+      <c r="W196" s="26"/>
     </row>
     <row r="197" customHeight="1" spans="1:23">
       <c r="A197" s="5"/>
@@ -13409,7 +13421,7 @@
       <c r="R197" s="5"/>
       <c r="S197" s="5"/>
       <c r="T197" s="5"/>
-      <c r="W197" s="25"/>
+      <c r="W197" s="26"/>
     </row>
     <row r="198" customHeight="1" spans="1:20">
       <c r="A198" s="5"/>
